--- a/data/Pelarco.xlsx
+++ b/data/Pelarco.xlsx
@@ -1288,26 +1288,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,26 +1336,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30000</v>
+        <v>130000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">

--- a/data/Pelarco.xlsx
+++ b/data/Pelarco.xlsx
@@ -1288,26 +1288,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>30000</v>
+        <v>130000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,26 +1336,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">

--- a/data/Pelarco.xlsx
+++ b/data/Pelarco.xlsx
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>23/06/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">

--- a/data/Pelarco.xlsx
+++ b/data/Pelarco.xlsx
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1288,26 +1288,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,26 +1336,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30000</v>
+        <v>130000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">

--- a/data/Pelarco.xlsx
+++ b/data/Pelarco.xlsx
@@ -1288,26 +1288,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
+          <t>Central Hidroeléctrica Providencia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Alto Jahuel Transmisora de Energia S.A.</t>
+          <t>Hidroeléctrica Providencia S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,26 +1336,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Providencia</t>
+          <t>"Línea Ancoa - Alto Jahuel 2 x 500 kV: Primer Circuito"</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Providencia S.A.</t>
+          <t>Alto Jahuel Transmisora de Energia S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30000</v>
+        <v>130000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5149356&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5154390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F77" t="n">

--- a/data/Pelarco.xlsx
+++ b/data/Pelarco.xlsx
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">

--- a/data/Pelarco.xlsx
+++ b/data/Pelarco.xlsx
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
